--- a/ref_data/laser_params.xlsx
+++ b/ref_data/laser_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishizawaosamu/work/ipynb/Melting/params/runs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishizawaosamu/work/MasterThesis/LAMBDA-Melting/ref_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FD3176-608D-6E40-959F-E94A1DC933DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CADC7E8-A3A7-F745-9B22-06C580F218FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="760" windowWidth="27160" windowHeight="18880" xr2:uid="{625C3FAE-8E3D-0D40-BFD7-116482AB16EC}"/>
+    <workbookView xWindow="30240" yWindow="13800" windowWidth="21600" windowHeight="18880" xr2:uid="{625C3FAE-8E3D-0D40-BFD7-116482AB16EC}"/>
   </bookViews>
   <sheets>
     <sheet name="laser_params" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -951,6 +951,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -960,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,15 +1082,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,6 +1136,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1141,67 +1217,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1570,16 +1607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58059775-CB60-DA40-8105-CFB5F7494364}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="15" style="11"/>
     <col min="2" max="2" width="15" style="15"/>
-    <col min="3" max="3" width="15" style="1"/>
+    <col min="3" max="3" width="15" style="57"/>
     <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="5" customWidth="1"/>
@@ -1599,7 +1636,7 @@
       <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="82" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1650,13 +1687,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19">
@@ -1691,14 +1728,14 @@
         <v>2000</v>
       </c>
       <c r="N3" s="21"/>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="25" customFormat="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="83" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="25">
@@ -1733,12 +1770,12 @@
         <v>2000</v>
       </c>
       <c r="N4" s="26"/>
-      <c r="O4" s="58"/>
+      <c r="O4" s="79"/>
     </row>
     <row r="5" spans="1:15" s="25" customFormat="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="83" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="25">
@@ -1773,12 +1810,12 @@
         <v>2000</v>
       </c>
       <c r="N5" s="26"/>
-      <c r="O5" s="58"/>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="79"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1">
@@ -1812,14 +1849,14 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="O6" s="58"/>
+      <c r="O6" s="79"/>
     </row>
     <row r="7" spans="1:15" s="19" customFormat="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="19">
@@ -1847,14 +1884,14 @@
       <c r="N7" s="21">
         <v>20</v>
       </c>
-      <c r="O7" s="57" t="s">
+      <c r="O7" s="78" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="25" customFormat="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="83" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="25">
@@ -1882,12 +1919,12 @@
       <c r="N8" s="26">
         <v>20</v>
       </c>
-      <c r="O8" s="58"/>
+      <c r="O8" s="79"/>
     </row>
     <row r="9" spans="1:15" s="25" customFormat="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="83" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="25">
@@ -1921,12 +1958,12 @@
         <v>2000</v>
       </c>
       <c r="N9" s="26"/>
-      <c r="O9" s="58"/>
+      <c r="O9" s="79"/>
     </row>
     <row r="10" spans="1:15" s="25" customFormat="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="25" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="83" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="25">
@@ -1960,12 +1997,12 @@
         <v>2000</v>
       </c>
       <c r="N10" s="26"/>
-      <c r="O10" s="58"/>
+      <c r="O10" s="79"/>
     </row>
     <row r="11" spans="1:15" s="25" customFormat="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="83" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="25">
@@ -1999,12 +2036,12 @@
         <v>2000</v>
       </c>
       <c r="N11" s="26"/>
-      <c r="O11" s="58"/>
+      <c r="O11" s="79"/>
     </row>
     <row r="12" spans="1:15" s="25" customFormat="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="83" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="25">
@@ -2038,12 +2075,12 @@
         <v>2000</v>
       </c>
       <c r="N12" s="26"/>
-      <c r="O12" s="58"/>
+      <c r="O12" s="79"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="79"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="57" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1">
@@ -2076,14 +2113,14 @@
       <c r="M13" s="8">
         <v>2000</v>
       </c>
-      <c r="O13" s="59"/>
+      <c r="O13" s="80"/>
     </row>
     <row r="14" spans="1:15" s="19" customFormat="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="19">
@@ -2114,9 +2151,9 @@
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" s="25" customFormat="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="83" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="25">
@@ -2153,9 +2190,9 @@
       <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:15" s="25" customFormat="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="83" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="25">
@@ -2192,9 +2229,9 @@
       <c r="O16" s="27"/>
     </row>
     <row r="17" spans="1:15" s="25" customFormat="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="25" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="83" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="25">
@@ -2225,9 +2262,9 @@
       <c r="O17" s="27"/>
     </row>
     <row r="18" spans="1:15" s="25" customFormat="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="25" t="s">
+      <c r="A18" s="71"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="83" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="25">
@@ -2258,9 +2295,9 @@
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15" s="25" customFormat="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="25" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="83" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="25">
@@ -2294,14 +2331,14 @@
         <v>8000</v>
       </c>
       <c r="N19" s="26"/>
-      <c r="O19" s="63" t="s">
+      <c r="O19" s="81" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="25" customFormat="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="25" t="s">
+      <c r="A20" s="71"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="83" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="25">
@@ -2335,12 +2372,12 @@
         <v>8000</v>
       </c>
       <c r="N20" s="26"/>
-      <c r="O20" s="63"/>
+      <c r="O20" s="81"/>
     </row>
     <row r="21" spans="1:15" s="25" customFormat="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="25" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="83" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="25">
@@ -2368,12 +2405,12 @@
       <c r="N21" s="26">
         <v>30</v>
       </c>
-      <c r="O21" s="63"/>
+      <c r="O21" s="81"/>
     </row>
     <row r="22" spans="1:15" s="25" customFormat="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="25" t="s">
+      <c r="A22" s="71"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="83" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="25">
@@ -2407,12 +2444,12 @@
         <v>8000</v>
       </c>
       <c r="N22" s="26"/>
-      <c r="O22" s="63"/>
+      <c r="O22" s="81"/>
     </row>
     <row r="23" spans="1:15" s="25" customFormat="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="83" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="25">
@@ -2440,12 +2477,12 @@
       <c r="N23" s="26">
         <v>30</v>
       </c>
-      <c r="O23" s="63"/>
+      <c r="O23" s="81"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="79"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="1">
@@ -2478,14 +2515,14 @@
       <c r="M24" s="8">
         <v>8000</v>
       </c>
-      <c r="O24" s="63"/>
+      <c r="O24" s="81"/>
     </row>
     <row r="25" spans="1:15" s="19" customFormat="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="60" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="19">
@@ -2516,9 +2553,9 @@
       <c r="O25" s="23"/>
     </row>
     <row r="26" spans="1:15" s="25" customFormat="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="71"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="83" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="25">
@@ -2555,9 +2592,9 @@
       <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:15" s="25" customFormat="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="71"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="83" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="25">
@@ -2588,9 +2625,9 @@
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15" s="25" customFormat="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="25" t="s">
+      <c r="A28" s="71"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="83" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="25">
@@ -2627,9 +2664,9 @@
       <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15" s="25" customFormat="1">
-      <c r="A29" s="79"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="25" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="83" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="25">
@@ -2660,9 +2697,9 @@
       <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:15" s="25" customFormat="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="83" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="25">
@@ -2693,9 +2730,9 @@
       <c r="O30" s="27"/>
     </row>
     <row r="31" spans="1:15" s="25" customFormat="1">
-      <c r="A31" s="79"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="25" t="s">
+      <c r="A31" s="71"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="83" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="25">
@@ -2732,9 +2769,9 @@
       <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:15" s="25" customFormat="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="25" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="83" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="25">
@@ -2765,9 +2802,9 @@
       <c r="O32" s="27"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="79"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="71"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="57" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="1">
@@ -2802,11 +2839,11 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="28" customFormat="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="66" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="84" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="28">
@@ -2840,14 +2877,14 @@
         <v>8000</v>
       </c>
       <c r="N34" s="30"/>
-      <c r="O34" s="64" t="s">
+      <c r="O34" s="73" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="31" customFormat="1">
-      <c r="A35" s="79"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="31" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="85" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="31">
@@ -2881,14 +2918,14 @@
         <v>8000</v>
       </c>
       <c r="N35" s="33"/>
-      <c r="O35" s="65"/>
+      <c r="O35" s="74"/>
     </row>
     <row r="36" spans="1:15" s="28" customFormat="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="66" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="84" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="28">
@@ -2925,9 +2962,9 @@
       <c r="O36" s="34"/>
     </row>
     <row r="37" spans="1:15" s="25" customFormat="1">
-      <c r="A37" s="79"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="68"/>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="83" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="25">
@@ -2964,9 +3001,9 @@
       <c r="O37" s="27"/>
     </row>
     <row r="38" spans="1:15" s="25" customFormat="1">
-      <c r="A38" s="79"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="68"/>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="83" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="25">
@@ -3003,9 +3040,9 @@
       <c r="O38" s="27"/>
     </row>
     <row r="39" spans="1:15" s="25" customFormat="1">
-      <c r="A39" s="79"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="83" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="25">
@@ -3042,9 +3079,9 @@
       <c r="O39" s="27"/>
     </row>
     <row r="40" spans="1:15" s="31" customFormat="1">
-      <c r="A40" s="79"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="31" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="85" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="31">
@@ -3081,11 +3118,11 @@
       <c r="O40" s="35"/>
     </row>
     <row r="41" spans="1:15" s="28" customFormat="1">
-      <c r="A41" s="79"/>
-      <c r="B41" s="66" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="84" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="28">
@@ -3119,14 +3156,14 @@
         <v>18000</v>
       </c>
       <c r="N41" s="30"/>
-      <c r="O41" s="69" t="s">
+      <c r="O41" s="75" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1">
-      <c r="A42" s="79"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="83" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="25">
@@ -3160,12 +3197,12 @@
         <v>18000</v>
       </c>
       <c r="N42" s="26"/>
-      <c r="O42" s="70"/>
+      <c r="O42" s="76"/>
     </row>
     <row r="43" spans="1:15" s="31" customFormat="1">
-      <c r="A43" s="79"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="31" t="s">
+      <c r="A43" s="71"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="85" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="31">
@@ -3199,14 +3236,14 @@
         <v>18000</v>
       </c>
       <c r="N43" s="33"/>
-      <c r="O43" s="71"/>
+      <c r="O43" s="77"/>
     </row>
     <row r="44" spans="1:15" s="28" customFormat="1">
-      <c r="A44" s="79"/>
-      <c r="B44" s="66" t="s">
+      <c r="A44" s="71"/>
+      <c r="B44" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="84" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="28">
@@ -3243,9 +3280,9 @@
       <c r="O44" s="34"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1">
-      <c r="A45" s="79"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="83" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="25">
@@ -3282,9 +3319,9 @@
       <c r="O45" s="27"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1">
-      <c r="A46" s="79"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="83" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="25">
@@ -3321,9 +3358,9 @@
       <c r="O46" s="27"/>
     </row>
     <row r="47" spans="1:15" s="25" customFormat="1">
-      <c r="A47" s="79"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="83" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="25">
@@ -3360,9 +3397,9 @@
       <c r="O47" s="27"/>
     </row>
     <row r="48" spans="1:15" s="25" customFormat="1">
-      <c r="A48" s="79"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="83" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="25">
@@ -3399,9 +3436,9 @@
       <c r="O48" s="27"/>
     </row>
     <row r="49" spans="1:15" s="25" customFormat="1" ht="42">
-      <c r="A49" s="79"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="83" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="25">
@@ -3440,9 +3477,9 @@
       </c>
     </row>
     <row r="50" spans="1:15" s="31" customFormat="1">
-      <c r="A50" s="79"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="31" t="s">
+      <c r="A50" s="71"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="85" t="s">
         <v>75</v>
       </c>
       <c r="D50" s="31">
@@ -3479,11 +3516,11 @@
       <c r="O50" s="35"/>
     </row>
     <row r="51" spans="1:15" s="28" customFormat="1">
-      <c r="A51" s="79"/>
-      <c r="B51" s="66" t="s">
+      <c r="A51" s="71"/>
+      <c r="B51" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="86" t="s">
         <v>80</v>
       </c>
       <c r="D51" s="28">
@@ -3520,9 +3557,9 @@
       <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:15" s="25" customFormat="1">
-      <c r="A52" s="79"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="68"/>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="87" t="s">
         <v>81</v>
       </c>
       <c r="D52" s="25">
@@ -3559,9 +3596,9 @@
       <c r="O52" s="27"/>
     </row>
     <row r="53" spans="1:15" s="25" customFormat="1">
-      <c r="A53" s="79"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="68"/>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="87" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="25">
@@ -3597,50 +3634,51 @@
       <c r="N53" s="26"/>
       <c r="O53" s="27"/>
     </row>
-    <row r="54" spans="1:15" s="39" customFormat="1">
-      <c r="A54" s="80"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="38" t="s">
+    <row r="54" spans="1:15" s="36" customFormat="1">
+      <c r="A54" s="72"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="39">
-        <v>17.5</v>
-      </c>
-      <c r="E54" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="40">
-        <v>1000</v>
-      </c>
-      <c r="G54" s="39">
-        <v>100</v>
-      </c>
-      <c r="H54" s="40">
-        <v>18000</v>
-      </c>
-      <c r="I54" s="41">
+      <c r="D54" s="36">
+        <v>17.5</v>
+      </c>
+      <c r="E54" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="36">
+        <v>100</v>
+      </c>
+      <c r="H54" s="37">
+        <v>18000</v>
+      </c>
+      <c r="I54" s="38">
         <v>20000</v>
       </c>
-      <c r="J54" s="40">
+      <c r="J54" s="37">
         <v>30</v>
       </c>
-      <c r="K54" s="40">
+      <c r="K54" s="37">
         <v>66</v>
       </c>
-      <c r="L54" s="40">
-        <v>100</v>
-      </c>
-      <c r="M54" s="41">
-        <v>18000</v>
-      </c>
-      <c r="N54" s="41"/>
-      <c r="O54" s="42"/>
+      <c r="L54" s="37">
+        <v>100</v>
+      </c>
+      <c r="M54" s="38">
+        <v>18000</v>
+      </c>
+      <c r="N54" s="38"/>
+      <c r="O54" s="39"/>
     </row>
     <row r="55" spans="1:15" s="19" customFormat="1">
       <c r="A55" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B55" s="15"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="19">
         <v>17.5</v>
       </c>
@@ -3753,169 +3791,169 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="45" customFormat="1">
-      <c r="A59" s="72" t="s">
+    <row r="59" spans="1:15" s="42" customFormat="1">
+      <c r="A59" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="42">
         <v>30</v>
       </c>
-      <c r="E59" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="46">
-        <v>1000</v>
-      </c>
-      <c r="G59" s="45">
-        <v>100</v>
-      </c>
-      <c r="H59" s="46">
+      <c r="E59" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="43">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="42">
+        <v>100</v>
+      </c>
+      <c r="H59" s="43">
         <v>8000</v>
       </c>
-      <c r="I59" s="47">
+      <c r="I59" s="44">
         <v>10000</v>
       </c>
-      <c r="J59" s="46">
+      <c r="J59" s="43">
         <v>0</v>
       </c>
-      <c r="K59" s="46">
+      <c r="K59" s="43">
         <v>16</v>
       </c>
-      <c r="L59" s="46">
-        <v>100</v>
-      </c>
-      <c r="M59" s="47">
+      <c r="L59" s="43">
+        <v>100</v>
+      </c>
+      <c r="M59" s="44">
         <v>8000</v>
       </c>
-      <c r="N59" s="47"/>
-      <c r="O59" s="48"/>
-    </row>
-    <row r="60" spans="1:15" s="49" customFormat="1">
-      <c r="A60" s="73"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="49" t="s">
+      <c r="N59" s="44"/>
+      <c r="O59" s="45"/>
+    </row>
+    <row r="60" spans="1:15" s="46" customFormat="1">
+      <c r="A60" s="62"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="46">
         <v>30</v>
       </c>
-      <c r="E60" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="50">
-        <v>1000</v>
-      </c>
-      <c r="G60" s="49">
-        <v>100</v>
-      </c>
-      <c r="H60" s="50">
+      <c r="E60" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="47">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="46">
+        <v>100</v>
+      </c>
+      <c r="H60" s="47">
         <v>8000</v>
       </c>
-      <c r="I60" s="51">
+      <c r="I60" s="48">
         <v>10000</v>
       </c>
-      <c r="J60" s="50">
+      <c r="J60" s="47">
         <v>0</v>
       </c>
-      <c r="K60" s="50">
+      <c r="K60" s="47">
         <v>32</v>
       </c>
-      <c r="L60" s="50">
-        <v>100</v>
-      </c>
-      <c r="M60" s="51">
+      <c r="L60" s="47">
+        <v>100</v>
+      </c>
+      <c r="M60" s="48">
         <v>8000</v>
       </c>
-      <c r="N60" s="51"/>
-      <c r="O60" s="52"/>
-    </row>
-    <row r="61" spans="1:15" s="49" customFormat="1">
-      <c r="A61" s="73"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="49" t="s">
+      <c r="N60" s="48"/>
+      <c r="O60" s="49"/>
+    </row>
+    <row r="61" spans="1:15" s="46" customFormat="1">
+      <c r="A61" s="62"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="49">
+      <c r="D61" s="46">
         <v>30</v>
       </c>
-      <c r="E61" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="50">
-        <v>1000</v>
-      </c>
-      <c r="G61" s="49">
-        <v>100</v>
-      </c>
-      <c r="H61" s="50">
+      <c r="E61" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="47">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="46">
+        <v>100</v>
+      </c>
+      <c r="H61" s="47">
         <v>8000</v>
       </c>
-      <c r="I61" s="51">
+      <c r="I61" s="48">
         <v>10000</v>
       </c>
-      <c r="J61" s="50">
+      <c r="J61" s="47">
         <v>15</v>
       </c>
-      <c r="K61" s="50">
+      <c r="K61" s="47">
         <v>47</v>
       </c>
-      <c r="L61" s="50">
-        <v>100</v>
-      </c>
-      <c r="M61" s="51">
+      <c r="L61" s="47">
+        <v>100</v>
+      </c>
+      <c r="M61" s="48">
         <v>8000</v>
       </c>
-      <c r="N61" s="51"/>
-      <c r="O61" s="52"/>
-    </row>
-    <row r="62" spans="1:15" s="53" customFormat="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="53" t="s">
+      <c r="N61" s="48"/>
+      <c r="O61" s="49"/>
+    </row>
+    <row r="62" spans="1:15" s="50" customFormat="1">
+      <c r="A62" s="63"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D62" s="50">
         <v>30</v>
       </c>
-      <c r="E62" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="54">
-        <v>1000</v>
-      </c>
-      <c r="G62" s="53">
-        <v>100</v>
-      </c>
-      <c r="H62" s="54">
-        <v>18000</v>
-      </c>
-      <c r="I62" s="55">
+      <c r="E62" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="51">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="50">
+        <v>100</v>
+      </c>
+      <c r="H62" s="51">
+        <v>18000</v>
+      </c>
+      <c r="I62" s="52">
         <v>20000</v>
       </c>
-      <c r="J62" s="54">
+      <c r="J62" s="51">
         <v>80</v>
       </c>
-      <c r="K62" s="54">
+      <c r="K62" s="51">
         <v>26</v>
       </c>
-      <c r="L62" s="54">
-        <v>100</v>
-      </c>
-      <c r="M62" s="55">
-        <v>18000</v>
-      </c>
-      <c r="N62" s="55"/>
-      <c r="O62" s="56"/>
+      <c r="L62" s="51">
+        <v>100</v>
+      </c>
+      <c r="M62" s="52">
+        <v>18000</v>
+      </c>
+      <c r="N62" s="52"/>
+      <c r="O62" s="53"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="43"/>
-      <c r="B63" s="44"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
       <c r="D63" s="1">
         <v>17.5</v>
       </c>
@@ -4151,6 +4189,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="O7:O13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="O19:O24"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="O41:O43"/>
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
@@ -4158,16 +4206,6 @@
     <mergeCell ref="A3:A54"/>
     <mergeCell ref="B44:B50"/>
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="O7:O13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="O19:O24"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="E1:E1048576">

--- a/ref_data/laser_params.xlsx
+++ b/ref_data/laser_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishizawaosamu/work/MasterThesis/LAMBDA-Melting/ref_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CADC7E8-A3A7-F745-9B22-06C580F218FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43077C8-6A9B-3840-8A58-A06A36FE421D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="13800" windowWidth="21600" windowHeight="18880" xr2:uid="{625C3FAE-8E3D-0D40-BFD7-116482AB16EC}"/>
   </bookViews>
@@ -394,58 +394,61 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>このrunはレーザー設定ミスってる</t>
+    <t>09</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Capv</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIbDia09_1st</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIbDia09_2nd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIbDia09_3rd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIbDia09_4th</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIpD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Fayalite</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIFY01_1st</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIFY01_3rd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIFY01_4th</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIFY01_2nd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>このrunはレーザー設定ミスって反対になった</t>
     <rPh sb="10" eb="12">
       <t xml:space="preserve">セッテイ </t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Capv</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OIbDia09_1st</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OIbDia09_2nd</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OIbDia09_3rd</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OIbDia09_4th</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OIpD</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Fayalite</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OIFY01_1st</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OIFY01_3rd</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OIFY01_4th</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OIFY01_2nd</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ハンタイ </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1148,6 +1151,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,41 +1190,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1199,6 +1199,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1208,37 +1217,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1607,9 +1610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58059775-CB60-DA40-8105-CFB5F7494364}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="20"/>
@@ -1636,7 +1639,7 @@
       <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1687,10 +1690,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="19" customFormat="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="68" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -1728,14 +1731,14 @@
         <v>2000</v>
       </c>
       <c r="N3" s="21"/>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="65" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="25" customFormat="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="83" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="59" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="25">
@@ -1770,12 +1773,12 @@
         <v>2000</v>
       </c>
       <c r="N4" s="26"/>
-      <c r="O4" s="79"/>
+      <c r="O4" s="66"/>
     </row>
     <row r="5" spans="1:15" s="25" customFormat="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="83" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="59" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="25">
@@ -1810,11 +1813,11 @@
         <v>2000</v>
       </c>
       <c r="N5" s="26"/>
-      <c r="O5" s="79"/>
+      <c r="O5" s="66"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="57" t="s">
         <v>15</v>
       </c>
@@ -1849,11 +1852,11 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="O6" s="79"/>
+      <c r="O6" s="66"/>
     </row>
     <row r="7" spans="1:15" s="19" customFormat="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="68" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1884,14 +1887,14 @@
       <c r="N7" s="21">
         <v>20</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="O7" s="65" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="25" customFormat="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="83" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="59" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="25">
@@ -1919,12 +1922,12 @@
       <c r="N8" s="26">
         <v>20</v>
       </c>
-      <c r="O8" s="79"/>
+      <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" s="25" customFormat="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="83" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="59" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="25">
@@ -1958,12 +1961,12 @@
         <v>2000</v>
       </c>
       <c r="N9" s="26"/>
-      <c r="O9" s="79"/>
+      <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:15" s="25" customFormat="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="83" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="59" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="25">
@@ -1997,12 +2000,12 @@
         <v>2000</v>
       </c>
       <c r="N10" s="26"/>
-      <c r="O10" s="79"/>
+      <c r="O10" s="66"/>
     </row>
     <row r="11" spans="1:15" s="25" customFormat="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="83" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="59" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="25">
@@ -2036,12 +2039,12 @@
         <v>2000</v>
       </c>
       <c r="N11" s="26"/>
-      <c r="O11" s="79"/>
+      <c r="O11" s="66"/>
     </row>
     <row r="12" spans="1:15" s="25" customFormat="1">
-      <c r="A12" s="71"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="83" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="59" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="25">
@@ -2075,11 +2078,11 @@
         <v>2000</v>
       </c>
       <c r="N12" s="26"/>
-      <c r="O12" s="79"/>
+      <c r="O12" s="66"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="71"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="57" t="s">
         <v>29</v>
       </c>
@@ -2113,11 +2116,11 @@
       <c r="M13" s="8">
         <v>2000</v>
       </c>
-      <c r="O13" s="80"/>
+      <c r="O13" s="67"/>
     </row>
     <row r="14" spans="1:15" s="19" customFormat="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="68" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -2151,9 +2154,9 @@
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" s="25" customFormat="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="83" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="59" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="25">
@@ -2190,9 +2193,9 @@
       <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:15" s="25" customFormat="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="83" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="25">
@@ -2229,9 +2232,9 @@
       <c r="O16" s="27"/>
     </row>
     <row r="17" spans="1:15" s="25" customFormat="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="83" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="59" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="25">
@@ -2262,9 +2265,9 @@
       <c r="O17" s="27"/>
     </row>
     <row r="18" spans="1:15" s="25" customFormat="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="83" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="25">
@@ -2295,9 +2298,9 @@
       <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15" s="25" customFormat="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="83" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="59" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="25">
@@ -2331,14 +2334,14 @@
         <v>8000</v>
       </c>
       <c r="N19" s="26"/>
-      <c r="O19" s="81" t="s">
+      <c r="O19" s="71" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="25" customFormat="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="83" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="59" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="25">
@@ -2372,12 +2375,12 @@
         <v>8000</v>
       </c>
       <c r="N20" s="26"/>
-      <c r="O20" s="81"/>
+      <c r="O20" s="71"/>
     </row>
     <row r="21" spans="1:15" s="25" customFormat="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="83" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="59" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="25">
@@ -2405,12 +2408,12 @@
       <c r="N21" s="26">
         <v>30</v>
       </c>
-      <c r="O21" s="81"/>
+      <c r="O21" s="71"/>
     </row>
     <row r="22" spans="1:15" s="25" customFormat="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="83" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="59" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="25">
@@ -2444,12 +2447,12 @@
         <v>8000</v>
       </c>
       <c r="N22" s="26"/>
-      <c r="O22" s="81"/>
+      <c r="O22" s="71"/>
     </row>
     <row r="23" spans="1:15" s="25" customFormat="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="83" t="s">
+      <c r="A23" s="87"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="59" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="25">
@@ -2477,11 +2480,11 @@
       <c r="N23" s="26">
         <v>30</v>
       </c>
-      <c r="O23" s="81"/>
+      <c r="O23" s="71"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="57" t="s">
         <v>42</v>
       </c>
@@ -2515,11 +2518,11 @@
       <c r="M24" s="8">
         <v>8000</v>
       </c>
-      <c r="O24" s="81"/>
+      <c r="O24" s="71"/>
     </row>
     <row r="25" spans="1:15" s="19" customFormat="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -2553,9 +2556,9 @@
       <c r="O25" s="23"/>
     </row>
     <row r="26" spans="1:15" s="25" customFormat="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="83" t="s">
+      <c r="A26" s="87"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="59" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="25">
@@ -2592,9 +2595,9 @@
       <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:15" s="25" customFormat="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="83" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="59" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="25">
@@ -2625,9 +2628,9 @@
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15" s="25" customFormat="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="83" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="59" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="25">
@@ -2664,9 +2667,9 @@
       <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15" s="25" customFormat="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="83" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="59" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="25">
@@ -2697,9 +2700,9 @@
       <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:15" s="25" customFormat="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="83" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="59" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="25">
@@ -2730,9 +2733,9 @@
       <c r="O30" s="27"/>
     </row>
     <row r="31" spans="1:15" s="25" customFormat="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="83" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="59" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="25">
@@ -2769,9 +2772,9 @@
       <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:15" s="25" customFormat="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="83" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="59" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="25">
@@ -2802,8 +2805,8 @@
       <c r="O32" s="27"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="57" t="s">
         <v>53</v>
       </c>
@@ -2839,11 +2842,11 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="28" customFormat="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="67" t="s">
+      <c r="A34" s="87"/>
+      <c r="B34" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="60" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="28">
@@ -2877,14 +2880,14 @@
         <v>8000</v>
       </c>
       <c r="N34" s="30"/>
-      <c r="O34" s="73" t="s">
+      <c r="O34" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="31" customFormat="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="85" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="31">
@@ -2918,14 +2921,14 @@
         <v>8000</v>
       </c>
       <c r="N35" s="33"/>
-      <c r="O35" s="74"/>
+      <c r="O35" s="73"/>
     </row>
     <row r="36" spans="1:15" s="28" customFormat="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="67" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="60" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="28">
@@ -2962,9 +2965,9 @@
       <c r="O36" s="34"/>
     </row>
     <row r="37" spans="1:15" s="25" customFormat="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="83" t="s">
+      <c r="A37" s="87"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="59" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="25">
@@ -3001,9 +3004,9 @@
       <c r="O37" s="27"/>
     </row>
     <row r="38" spans="1:15" s="25" customFormat="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="83" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="59" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="25">
@@ -3040,9 +3043,9 @@
       <c r="O38" s="27"/>
     </row>
     <row r="39" spans="1:15" s="25" customFormat="1">
-      <c r="A39" s="71"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="83" t="s">
+      <c r="A39" s="87"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="59" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="25">
@@ -3079,9 +3082,9 @@
       <c r="O39" s="27"/>
     </row>
     <row r="40" spans="1:15" s="31" customFormat="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="85" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="61" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="31">
@@ -3118,11 +3121,11 @@
       <c r="O40" s="35"/>
     </row>
     <row r="41" spans="1:15" s="28" customFormat="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="67" t="s">
+      <c r="A41" s="87"/>
+      <c r="B41" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="60" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="28">
@@ -3156,14 +3159,14 @@
         <v>18000</v>
       </c>
       <c r="N41" s="30"/>
-      <c r="O41" s="75" t="s">
+      <c r="O41" s="77" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1">
-      <c r="A42" s="71"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="83" t="s">
+      <c r="A42" s="87"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="59" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="25">
@@ -3197,12 +3200,12 @@
         <v>18000</v>
       </c>
       <c r="N42" s="26"/>
-      <c r="O42" s="76"/>
+      <c r="O42" s="78"/>
     </row>
     <row r="43" spans="1:15" s="31" customFormat="1">
-      <c r="A43" s="71"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="85" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="61" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="31">
@@ -3236,14 +3239,14 @@
         <v>18000</v>
       </c>
       <c r="N43" s="33"/>
-      <c r="O43" s="77"/>
+      <c r="O43" s="79"/>
     </row>
     <row r="44" spans="1:15" s="28" customFormat="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="67" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="60" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="28">
@@ -3280,9 +3283,9 @@
       <c r="O44" s="34"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1">
-      <c r="A45" s="71"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="83" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="59" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="25">
@@ -3319,9 +3322,9 @@
       <c r="O45" s="27"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="83" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="59" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="25">
@@ -3358,9 +3361,9 @@
       <c r="O46" s="27"/>
     </row>
     <row r="47" spans="1:15" s="25" customFormat="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="83" t="s">
+      <c r="A47" s="87"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="59" t="s">
         <v>72</v>
       </c>
       <c r="D47" s="25">
@@ -3397,9 +3400,9 @@
       <c r="O47" s="27"/>
     </row>
     <row r="48" spans="1:15" s="25" customFormat="1">
-      <c r="A48" s="71"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="83" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="59" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="25">
@@ -3436,9 +3439,9 @@
       <c r="O48" s="27"/>
     </row>
     <row r="49" spans="1:15" s="25" customFormat="1" ht="42">
-      <c r="A49" s="71"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="83" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="59" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="25">
@@ -3460,26 +3463,26 @@
         <v>20000</v>
       </c>
       <c r="J49" s="24">
+        <v>6</v>
+      </c>
+      <c r="K49" s="24">
         <v>20</v>
       </c>
-      <c r="K49" s="24">
-        <v>12</v>
-      </c>
       <c r="L49" s="24">
         <v>100</v>
       </c>
       <c r="M49" s="26">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="N49" s="26"/>
       <c r="O49" s="27" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="31" customFormat="1">
-      <c r="A50" s="71"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="85" t="s">
+      <c r="A50" s="87"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="61" t="s">
         <v>75</v>
       </c>
       <c r="D50" s="31">
@@ -3516,12 +3519,12 @@
       <c r="O50" s="35"/>
     </row>
     <row r="51" spans="1:15" s="28" customFormat="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="86" t="s">
-        <v>80</v>
+      <c r="A51" s="87"/>
+      <c r="B51" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>79</v>
       </c>
       <c r="D51" s="28">
         <v>17.5</v>
@@ -3557,10 +3560,10 @@
       <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:15" s="25" customFormat="1">
-      <c r="A52" s="71"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="87" t="s">
-        <v>81</v>
+      <c r="A52" s="87"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="D52" s="25">
         <v>17.5</v>
@@ -3596,10 +3599,10 @@
       <c r="O52" s="27"/>
     </row>
     <row r="53" spans="1:15" s="25" customFormat="1">
-      <c r="A53" s="71"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="87" t="s">
-        <v>82</v>
+      <c r="A53" s="87"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="D53" s="25">
         <v>17.5</v>
@@ -3635,10 +3638,10 @@
       <c r="O53" s="27"/>
     </row>
     <row r="54" spans="1:15" s="36" customFormat="1">
-      <c r="A54" s="72"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="88" t="s">
-        <v>83</v>
+      <c r="A54" s="88"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="64" t="s">
+        <v>82</v>
       </c>
       <c r="D54" s="36">
         <v>17.5</v>
@@ -3675,7 +3678,7 @@
     </row>
     <row r="55" spans="1:15" s="19" customFormat="1">
       <c r="A55" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="13"/>
@@ -3736,7 +3739,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="1">
         <v>17.5</v>
@@ -3792,14 +3795,14 @@
       </c>
     </row>
     <row r="59" spans="1:15" s="42" customFormat="1">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="54" t="s">
         <v>85</v>
-      </c>
-      <c r="B59" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>86</v>
       </c>
       <c r="D59" s="42">
         <v>30</v>
@@ -3835,10 +3838,10 @@
       <c r="O59" s="45"/>
     </row>
     <row r="60" spans="1:15" s="46" customFormat="1">
-      <c r="A60" s="62"/>
-      <c r="B60" s="65"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="84"/>
       <c r="C60" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" s="46">
         <v>30</v>
@@ -3874,10 +3877,10 @@
       <c r="O60" s="49"/>
     </row>
     <row r="61" spans="1:15" s="46" customFormat="1">
-      <c r="A61" s="62"/>
-      <c r="B61" s="65"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="84"/>
       <c r="C61" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D61" s="46">
         <v>30</v>
@@ -3913,10 +3916,10 @@
       <c r="O61" s="49"/>
     </row>
     <row r="62" spans="1:15" s="50" customFormat="1">
-      <c r="A62" s="63"/>
-      <c r="B62" s="66"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D62" s="50">
         <v>30</v>
@@ -4189,16 +4192,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="O7:O13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="O19:O24"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="O41:O43"/>
     <mergeCell ref="B25:B33"/>
     <mergeCell ref="A59:A62"/>
     <mergeCell ref="B59:B62"/>
@@ -4206,6 +4199,16 @@
     <mergeCell ref="A3:A54"/>
     <mergeCell ref="B44:B50"/>
     <mergeCell ref="B3:B6"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="O7:O13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="O19:O24"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="E1:E1048576">

--- a/ref_data/laser_params.xlsx
+++ b/ref_data/laser_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishizawaosamu/work/MasterThesis/LAMBDA-Melting/ref_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43077C8-6A9B-3840-8A58-A06A36FE421D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC194040-9CCC-AA45-A305-413905919FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="13800" windowWidth="21600" windowHeight="18880" xr2:uid="{625C3FAE-8E3D-0D40-BFD7-116482AB16EC}"/>
+    <workbookView xWindow="30240" yWindow="13280" windowWidth="21600" windowHeight="18880" xr2:uid="{625C3FAE-8E3D-0D40-BFD7-116482AB16EC}"/>
   </bookViews>
   <sheets>
     <sheet name="laser_params" sheetId="1" r:id="rId1"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>セル</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>01</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -449,6 +445,10 @@
     <rPh sb="16" eb="18">
       <t xml:space="preserve">ハンタイ </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cell</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1172,6 +1172,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,68 +1241,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1608,11 +1608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58059775-CB60-DA40-8105-CFB5F7494364}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="A2:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="20"/>
@@ -1637,7 +1637,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C1" s="58" t="s">
         <v>0</v>
@@ -1679,67 +1679,97 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="16"/>
-      <c r="F2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="19" customFormat="1">
-      <c r="A3" s="86" t="s">
+    <row r="2" spans="1:15" s="19" customFormat="1" ht="19" customHeight="1">
+      <c r="A2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B2" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="19">
+        <v>17.5</v>
+      </c>
+      <c r="E2" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="19">
+        <v>100</v>
+      </c>
+      <c r="H2" s="20">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="21">
+        <v>5000</v>
+      </c>
+      <c r="J2" s="20">
+        <v>20</v>
+      </c>
+      <c r="K2" s="20">
+        <v>60</v>
+      </c>
+      <c r="L2" s="20">
+        <v>100</v>
+      </c>
+      <c r="M2" s="21">
+        <f>H2</f>
+        <v>2000</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="19">
-        <v>17.5</v>
-      </c>
-      <c r="E3" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="20">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="19">
-        <v>100</v>
-      </c>
-      <c r="H3" s="20">
+    </row>
+    <row r="3" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="25">
+        <v>17.5</v>
+      </c>
+      <c r="E3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="25">
+        <v>100</v>
+      </c>
+      <c r="H3" s="24">
         <v>2000</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="26">
         <v>5000</v>
       </c>
-      <c r="J3" s="20">
-        <v>20</v>
-      </c>
-      <c r="K3" s="20">
-        <v>60</v>
-      </c>
-      <c r="L3" s="20">
-        <v>100</v>
-      </c>
-      <c r="M3" s="21">
-        <f>H3</f>
+      <c r="J3" s="24">
+        <v>90</v>
+      </c>
+      <c r="K3" s="24">
+        <v>40</v>
+      </c>
+      <c r="L3" s="24">
+        <v>100</v>
+      </c>
+      <c r="M3" s="26">
+        <f t="shared" ref="M3:M5" si="0">H3</f>
         <v>2000</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="25" customFormat="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="69"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="86"/>
+    </row>
+    <row r="4" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A4" s="78"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="25">
         <v>17.5</v>
@@ -1760,140 +1790,133 @@
         <v>5000</v>
       </c>
       <c r="J4" s="24">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="K4" s="24">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L4" s="24">
         <v>100</v>
       </c>
       <c r="M4" s="26">
-        <f t="shared" ref="M4:M6" si="0">H4</f>
-        <v>2000</v>
-      </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="66"/>
-    </row>
-    <row r="5" spans="1:15" s="25" customFormat="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="25">
-        <v>17.5</v>
-      </c>
-      <c r="E5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="24">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="25">
-        <v>100</v>
-      </c>
-      <c r="H5" s="24">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="26">
-        <v>5000</v>
-      </c>
-      <c r="J5" s="24">
-        <v>20</v>
-      </c>
-      <c r="K5" s="24">
-        <v>70</v>
-      </c>
-      <c r="L5" s="24">
-        <v>100</v>
-      </c>
-      <c r="M5" s="26">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="66"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="87"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="57" t="s">
+      <c r="N4" s="26"/>
+      <c r="O4" s="86"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" customHeight="1">
+      <c r="A5" s="78"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="D5" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="22">
         <v>2000</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I5" s="8">
         <v>5000</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J5" s="22">
         <v>70</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K5" s="22">
         <v>90</v>
       </c>
-      <c r="L6" s="22">
-        <v>100</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="L5" s="22">
+        <v>100</v>
+      </c>
+      <c r="M5" s="8">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="O6" s="66"/>
-    </row>
-    <row r="7" spans="1:15" s="19" customFormat="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="O5" s="86"/>
+    </row>
+    <row r="6" spans="1:15" s="19" customFormat="1" ht="19" customHeight="1">
+      <c r="A6" s="78"/>
+      <c r="B6" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="19">
+        <v>17.5</v>
+      </c>
+      <c r="E6" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="19">
+        <v>100</v>
+      </c>
+      <c r="H6" s="20">
+        <v>2000</v>
+      </c>
+      <c r="I6" s="21">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21">
+        <v>20</v>
+      </c>
+      <c r="O6" s="85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A7" s="78"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19">
-        <v>17.5</v>
-      </c>
-      <c r="E7" s="19" t="b">
+      <c r="D7" s="25">
+        <v>17.5</v>
+      </c>
+      <c r="E7" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="20">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="19">
-        <v>100</v>
-      </c>
-      <c r="H7" s="20">
+      <c r="F7" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="25">
+        <v>100</v>
+      </c>
+      <c r="H7" s="24">
         <v>2000</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="26">
         <v>5000</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21">
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26">
         <v>20</v>
       </c>
-      <c r="O7" s="65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="25" customFormat="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="69"/>
+      <c r="O7" s="86"/>
+    </row>
+    <row r="8" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A8" s="78"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="59" t="s">
         <v>24</v>
       </c>
@@ -1901,7 +1924,7 @@
         <v>17.5</v>
       </c>
       <c r="E8" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="24">
         <v>1000</v>
@@ -1915,18 +1938,24 @@
       <c r="I8" s="26">
         <v>5000</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26">
+      <c r="J8" s="24">
         <v>20</v>
       </c>
-      <c r="O8" s="66"/>
-    </row>
-    <row r="9" spans="1:15" s="25" customFormat="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="69"/>
+      <c r="K8" s="24">
+        <v>40</v>
+      </c>
+      <c r="L8" s="24">
+        <v>100</v>
+      </c>
+      <c r="M8" s="26">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="86"/>
+    </row>
+    <row r="9" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A9" s="78"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="59" t="s">
         <v>25</v>
       </c>
@@ -1961,11 +1990,11 @@
         <v>2000</v>
       </c>
       <c r="N9" s="26"/>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" spans="1:15" s="25" customFormat="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="69"/>
+      <c r="O9" s="86"/>
+    </row>
+    <row r="10" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A10" s="78"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="59" t="s">
         <v>26</v>
       </c>
@@ -1991,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="K10" s="24">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L10" s="24">
         <v>100</v>
@@ -2000,11 +2029,11 @@
         <v>2000</v>
       </c>
       <c r="N10" s="26"/>
-      <c r="O10" s="66"/>
-    </row>
-    <row r="11" spans="1:15" s="25" customFormat="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="69"/>
+      <c r="O10" s="86"/>
+    </row>
+    <row r="11" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="59" t="s">
         <v>27</v>
       </c>
@@ -2039,123 +2068,123 @@
         <v>2000</v>
       </c>
       <c r="N11" s="26"/>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="1:15" s="25" customFormat="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="59" t="s">
+      <c r="O11" s="86"/>
+    </row>
+    <row r="12" spans="1:15" ht="19" customHeight="1">
+      <c r="A12" s="78"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="25">
-        <v>17.5</v>
-      </c>
-      <c r="E12" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="24">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="25">
-        <v>100</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="D12" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="H12" s="5">
         <v>2000</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="8">
         <v>5000</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="5">
         <v>20</v>
       </c>
-      <c r="K12" s="24">
-        <v>30</v>
-      </c>
-      <c r="L12" s="24">
-        <v>100</v>
-      </c>
-      <c r="M12" s="26">
+      <c r="K12" s="5">
+        <v>40</v>
+      </c>
+      <c r="L12" s="5">
+        <v>100</v>
+      </c>
+      <c r="M12" s="8">
         <v>2000</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="87"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="E13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>100</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="O12" s="87"/>
+    </row>
+    <row r="13" spans="1:15" s="19" customFormat="1" ht="19" customHeight="1">
+      <c r="A13" s="78"/>
+      <c r="B13" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="19">
+        <v>17.5</v>
+      </c>
+      <c r="E13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="19">
+        <v>100</v>
+      </c>
+      <c r="H13" s="20">
         <v>2000</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="21">
         <v>5000</v>
       </c>
-      <c r="J13" s="5">
-        <v>20</v>
-      </c>
-      <c r="K13" s="5">
-        <v>40</v>
-      </c>
-      <c r="L13" s="5">
-        <v>100</v>
-      </c>
-      <c r="M13" s="8">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21">
+        <v>25</v>
+      </c>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A14" s="78"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="25">
+        <v>17.5</v>
+      </c>
+      <c r="E14" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="25">
+        <v>100</v>
+      </c>
+      <c r="H14" s="24">
         <v>2000</v>
       </c>
-      <c r="O13" s="67"/>
-    </row>
-    <row r="14" spans="1:15" s="19" customFormat="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="19">
-        <v>17.5</v>
-      </c>
-      <c r="E14" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="19">
-        <v>100</v>
-      </c>
-      <c r="H14" s="20">
+      <c r="I14" s="26">
+        <v>5000</v>
+      </c>
+      <c r="J14" s="24">
+        <v>25</v>
+      </c>
+      <c r="K14" s="24">
+        <v>45</v>
+      </c>
+      <c r="L14" s="24">
+        <v>100</v>
+      </c>
+      <c r="M14" s="26">
         <v>2000</v>
       </c>
-      <c r="I14" s="21">
-        <v>5000</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21">
-        <v>25</v>
-      </c>
-      <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:15" s="25" customFormat="1">
-      <c r="A15" s="87"/>
-      <c r="B15" s="69"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A15" s="78"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="59" t="s">
         <v>33</v>
       </c>
@@ -2181,7 +2210,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="24">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="L15" s="24">
         <v>100</v>
@@ -2192,9 +2221,9 @@
       <c r="N15" s="26"/>
       <c r="O15" s="27"/>
     </row>
-    <row r="16" spans="1:15" s="25" customFormat="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="69"/>
+    <row r="16" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A16" s="78"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="59" t="s">
         <v>34</v>
       </c>
@@ -2202,7 +2231,7 @@
         <v>17.5</v>
       </c>
       <c r="E16" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="24">
         <v>1000</v>
@@ -2216,24 +2245,18 @@
       <c r="I16" s="26">
         <v>5000</v>
       </c>
-      <c r="J16" s="24">
-        <v>25</v>
-      </c>
-      <c r="K16" s="24">
-        <v>65</v>
-      </c>
-      <c r="L16" s="24">
-        <v>100</v>
-      </c>
-      <c r="M16" s="26">
-        <v>2000</v>
-      </c>
-      <c r="N16" s="26"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26">
+        <v>80</v>
+      </c>
       <c r="O16" s="27"/>
     </row>
-    <row r="17" spans="1:15" s="25" customFormat="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="69"/>
+    <row r="17" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A17" s="78"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="59" t="s">
         <v>35</v>
       </c>
@@ -2260,13 +2283,13 @@
       <c r="L17" s="24"/>
       <c r="M17" s="26"/>
       <c r="N17" s="26">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O17" s="27"/>
     </row>
-    <row r="18" spans="1:15" s="25" customFormat="1">
-      <c r="A18" s="87"/>
-      <c r="B18" s="69"/>
+    <row r="18" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A18" s="78"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="59" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2297,7 @@
         <v>17.5</v>
       </c>
       <c r="E18" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="24">
         <v>1000</v>
@@ -2283,23 +2306,31 @@
         <v>100</v>
       </c>
       <c r="H18" s="24">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="I18" s="26">
-        <v>5000</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26">
-        <v>40</v>
-      </c>
-      <c r="O18" s="27"/>
-    </row>
-    <row r="19" spans="1:15" s="25" customFormat="1">
-      <c r="A19" s="87"/>
-      <c r="B19" s="69"/>
+        <v>10000</v>
+      </c>
+      <c r="J18" s="24">
+        <v>30</v>
+      </c>
+      <c r="K18" s="24">
+        <v>60</v>
+      </c>
+      <c r="L18" s="24">
+        <v>100</v>
+      </c>
+      <c r="M18" s="26">
+        <v>8000</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A19" s="78"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="59" t="s">
         <v>37</v>
       </c>
@@ -2334,13 +2365,11 @@
         <v>8000</v>
       </c>
       <c r="N19" s="26"/>
-      <c r="O19" s="71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="25" customFormat="1">
-      <c r="A20" s="87"/>
-      <c r="B20" s="69"/>
+      <c r="O19" s="88"/>
+    </row>
+    <row r="20" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A20" s="78"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="59" t="s">
         <v>38</v>
       </c>
@@ -2348,7 +2377,7 @@
         <v>17.5</v>
       </c>
       <c r="E20" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="24">
         <v>1000</v>
@@ -2362,24 +2391,18 @@
       <c r="I20" s="26">
         <v>10000</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26">
         <v>30</v>
       </c>
-      <c r="K20" s="24">
-        <v>60</v>
-      </c>
-      <c r="L20" s="24">
-        <v>100</v>
-      </c>
-      <c r="M20" s="26">
-        <v>8000</v>
-      </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="71"/>
-    </row>
-    <row r="21" spans="1:15" s="25" customFormat="1">
-      <c r="A21" s="87"/>
-      <c r="B21" s="69"/>
+      <c r="O20" s="88"/>
+    </row>
+    <row r="21" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A21" s="78"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="59" t="s">
         <v>39</v>
       </c>
@@ -2387,7 +2410,7 @@
         <v>17.5</v>
       </c>
       <c r="E21" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="24">
         <v>1000</v>
@@ -2401,18 +2424,24 @@
       <c r="I21" s="26">
         <v>10000</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26">
+      <c r="J21" s="24">
+        <v>60</v>
+      </c>
+      <c r="K21" s="24">
         <v>30</v>
       </c>
-      <c r="O21" s="71"/>
-    </row>
-    <row r="22" spans="1:15" s="25" customFormat="1">
-      <c r="A22" s="87"/>
-      <c r="B22" s="69"/>
+      <c r="L21" s="24">
+        <v>100</v>
+      </c>
+      <c r="M21" s="26">
+        <v>8000</v>
+      </c>
+      <c r="N21" s="26"/>
+      <c r="O21" s="88"/>
+    </row>
+    <row r="22" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A22" s="78"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="59" t="s">
         <v>40</v>
       </c>
@@ -2420,7 +2449,7 @@
         <v>17.5</v>
       </c>
       <c r="E22" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="24">
         <v>1000</v>
@@ -2434,130 +2463,130 @@
       <c r="I22" s="26">
         <v>10000</v>
       </c>
-      <c r="J22" s="24">
-        <v>60</v>
-      </c>
-      <c r="K22" s="24">
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26">
         <v>30</v>
       </c>
-      <c r="L22" s="24">
-        <v>100</v>
-      </c>
-      <c r="M22" s="26">
+      <c r="O22" s="88"/>
+    </row>
+    <row r="23" spans="1:15" ht="19" customHeight="1">
+      <c r="A23" s="78"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>100</v>
+      </c>
+      <c r="H23" s="5">
         <v>8000</v>
       </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="71"/>
-    </row>
-    <row r="23" spans="1:15" s="25" customFormat="1">
-      <c r="A23" s="87"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="25">
-        <v>17.5</v>
-      </c>
-      <c r="E23" s="25" t="b">
+      <c r="I23" s="8">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="5">
+        <v>40</v>
+      </c>
+      <c r="K23" s="5">
+        <v>20</v>
+      </c>
+      <c r="L23" s="5">
+        <v>100</v>
+      </c>
+      <c r="M23" s="8">
+        <v>8000</v>
+      </c>
+      <c r="O23" s="88"/>
+    </row>
+    <row r="24" spans="1:15" s="19" customFormat="1" ht="19" customHeight="1">
+      <c r="A24" s="78"/>
+      <c r="B24" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="19">
+        <v>17.5</v>
+      </c>
+      <c r="E24" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="24">
-        <v>1000</v>
-      </c>
-      <c r="G23" s="25">
-        <v>100</v>
-      </c>
-      <c r="H23" s="24">
-        <v>8000</v>
-      </c>
-      <c r="I23" s="26">
-        <v>10000</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26">
-        <v>30</v>
-      </c>
-      <c r="O23" s="71"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="E24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G24" s="1">
-        <v>100</v>
-      </c>
-      <c r="H24" s="5">
-        <v>8000</v>
-      </c>
-      <c r="I24" s="8">
-        <v>10000</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="F24" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>100</v>
+      </c>
+      <c r="H24" s="20">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="21">
+        <v>5000</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21">
+        <v>20</v>
+      </c>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A25" s="78"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="25">
+        <v>17.5</v>
+      </c>
+      <c r="E25" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="25">
+        <v>100</v>
+      </c>
+      <c r="H25" s="24">
+        <v>2000</v>
+      </c>
+      <c r="I25" s="26">
+        <v>5000</v>
+      </c>
+      <c r="J25" s="24">
+        <v>10</v>
+      </c>
+      <c r="K25" s="24">
         <v>40</v>
       </c>
-      <c r="K24" s="5">
-        <v>20</v>
-      </c>
-      <c r="L24" s="5">
-        <v>100</v>
-      </c>
-      <c r="M24" s="8">
-        <v>8000</v>
-      </c>
-      <c r="O24" s="71"/>
-    </row>
-    <row r="25" spans="1:15" s="19" customFormat="1">
-      <c r="A25" s="87"/>
-      <c r="B25" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="19">
-        <v>17.5</v>
-      </c>
-      <c r="E25" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="20">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="19">
-        <v>100</v>
-      </c>
-      <c r="H25" s="20">
+      <c r="L25" s="24">
+        <v>100</v>
+      </c>
+      <c r="M25" s="26">
         <v>2000</v>
       </c>
-      <c r="I25" s="21">
-        <v>5000</v>
-      </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21">
-        <v>20</v>
-      </c>
-      <c r="O25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" s="25" customFormat="1">
-      <c r="A26" s="87"/>
-      <c r="B26" s="69"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A26" s="78"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="59" t="s">
         <v>46</v>
       </c>
@@ -2565,7 +2594,7 @@
         <v>17.5</v>
       </c>
       <c r="E26" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="24">
         <v>1000</v>
@@ -2579,24 +2608,18 @@
       <c r="I26" s="26">
         <v>5000</v>
       </c>
-      <c r="J26" s="24">
-        <v>10</v>
-      </c>
-      <c r="K26" s="24">
-        <v>40</v>
-      </c>
-      <c r="L26" s="24">
-        <v>100</v>
-      </c>
-      <c r="M26" s="26">
-        <v>2000</v>
-      </c>
-      <c r="N26" s="26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26">
+        <v>15</v>
+      </c>
       <c r="O26" s="27"/>
     </row>
-    <row r="27" spans="1:15" s="25" customFormat="1">
-      <c r="A27" s="87"/>
-      <c r="B27" s="69"/>
+    <row r="27" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A27" s="78"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="59" t="s">
         <v>47</v>
       </c>
@@ -2604,7 +2627,7 @@
         <v>17.5</v>
       </c>
       <c r="E27" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="24">
         <v>1000</v>
@@ -2618,18 +2641,24 @@
       <c r="I27" s="26">
         <v>5000</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26">
-        <v>15</v>
-      </c>
+      <c r="J27" s="24">
+        <v>40</v>
+      </c>
+      <c r="K27" s="24">
+        <v>10</v>
+      </c>
+      <c r="L27" s="24">
+        <v>100</v>
+      </c>
+      <c r="M27" s="26">
+        <v>2000</v>
+      </c>
+      <c r="N27" s="26"/>
       <c r="O27" s="27"/>
     </row>
-    <row r="28" spans="1:15" s="25" customFormat="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="69"/>
+    <row r="28" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A28" s="78"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="59" t="s">
         <v>48</v>
       </c>
@@ -2637,7 +2666,7 @@
         <v>17.5</v>
       </c>
       <c r="E28" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="24">
         <v>1000</v>
@@ -2651,24 +2680,18 @@
       <c r="I28" s="26">
         <v>5000</v>
       </c>
-      <c r="J28" s="24">
-        <v>40</v>
-      </c>
-      <c r="K28" s="24">
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26">
         <v>10</v>
       </c>
-      <c r="L28" s="24">
-        <v>100</v>
-      </c>
-      <c r="M28" s="26">
-        <v>2000</v>
-      </c>
-      <c r="N28" s="26"/>
       <c r="O28" s="27"/>
     </row>
-    <row r="29" spans="1:15" s="25" customFormat="1">
-      <c r="A29" s="87"/>
-      <c r="B29" s="69"/>
+    <row r="29" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A29" s="78"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="59" t="s">
         <v>49</v>
       </c>
@@ -2685,10 +2708,10 @@
         <v>100</v>
       </c>
       <c r="H29" s="24">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="I29" s="26">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
@@ -2699,9 +2722,9 @@
       </c>
       <c r="O29" s="27"/>
     </row>
-    <row r="30" spans="1:15" s="25" customFormat="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="69"/>
+    <row r="30" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A30" s="78"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="59" t="s">
         <v>50</v>
       </c>
@@ -2709,7 +2732,7 @@
         <v>17.5</v>
       </c>
       <c r="E30" s="25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="24">
         <v>1000</v>
@@ -2723,18 +2746,24 @@
       <c r="I30" s="26">
         <v>10000</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26">
+      <c r="J30" s="24">
         <v>10</v>
       </c>
+      <c r="K30" s="24">
+        <v>40</v>
+      </c>
+      <c r="L30" s="24">
+        <v>100</v>
+      </c>
+      <c r="M30" s="26">
+        <v>8000</v>
+      </c>
+      <c r="N30" s="26"/>
       <c r="O30" s="27"/>
     </row>
-    <row r="31" spans="1:15" s="25" customFormat="1">
-      <c r="A31" s="87"/>
-      <c r="B31" s="69"/>
+    <row r="31" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A31" s="78"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="59" t="s">
         <v>51</v>
       </c>
@@ -2742,7 +2771,7 @@
         <v>17.5</v>
       </c>
       <c r="E31" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="24">
         <v>1000</v>
@@ -2756,217 +2785,217 @@
       <c r="I31" s="26">
         <v>10000</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26">
         <v>10</v>
       </c>
-      <c r="K31" s="24">
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" ht="19" customHeight="1">
+      <c r="A32" s="78"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>100</v>
+      </c>
+      <c r="H32" s="5">
+        <v>8000</v>
+      </c>
+      <c r="I32" s="8">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="5">
         <v>40</v>
       </c>
-      <c r="L31" s="24">
-        <v>100</v>
-      </c>
-      <c r="M31" s="26">
+      <c r="K32" s="5">
+        <v>10</v>
+      </c>
+      <c r="L32" s="5">
+        <v>100</v>
+      </c>
+      <c r="M32" s="8">
         <v>8000</v>
       </c>
-      <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
-    </row>
-    <row r="32" spans="1:15" s="25" customFormat="1">
-      <c r="A32" s="87"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="25">
-        <v>17.5</v>
-      </c>
-      <c r="E32" s="25" t="b">
+    </row>
+    <row r="33" spans="1:15" s="28" customFormat="1" ht="19" customHeight="1">
+      <c r="A33" s="78"/>
+      <c r="B33" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="E33" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="29">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="28">
+        <v>100</v>
+      </c>
+      <c r="H33" s="29">
+        <v>8000</v>
+      </c>
+      <c r="I33" s="30">
+        <v>10000</v>
+      </c>
+      <c r="J33" s="29">
+        <v>20</v>
+      </c>
+      <c r="K33" s="29">
+        <v>60</v>
+      </c>
+      <c r="L33" s="29">
+        <v>100</v>
+      </c>
+      <c r="M33" s="30">
+        <v>8000</v>
+      </c>
+      <c r="N33" s="30"/>
+      <c r="O33" s="80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="31" customFormat="1" ht="19" customHeight="1">
+      <c r="A34" s="78"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="31">
+        <v>17.5</v>
+      </c>
+      <c r="E34" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="32">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="31">
+        <v>100</v>
+      </c>
+      <c r="H34" s="32">
+        <v>8000</v>
+      </c>
+      <c r="I34" s="33">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="32">
         <v>0</v>
       </c>
-      <c r="F32" s="24">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="25">
-        <v>100</v>
-      </c>
-      <c r="H32" s="24">
+      <c r="K34" s="32">
+        <v>40</v>
+      </c>
+      <c r="L34" s="32">
+        <v>100</v>
+      </c>
+      <c r="M34" s="33">
         <v>8000</v>
       </c>
-      <c r="I32" s="26">
+      <c r="N34" s="33"/>
+      <c r="O34" s="81"/>
+    </row>
+    <row r="35" spans="1:15" s="28" customFormat="1" ht="19" customHeight="1">
+      <c r="A35" s="78"/>
+      <c r="B35" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28">
+        <v>30</v>
+      </c>
+      <c r="E35" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="29">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="28">
+        <v>100</v>
+      </c>
+      <c r="H35" s="29">
+        <v>8000</v>
+      </c>
+      <c r="I35" s="30">
         <v>10000</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26">
+      <c r="J35" s="29">
         <v>10</v>
       </c>
-      <c r="O32" s="27"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="87"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="E33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>100</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="K35" s="29">
+        <v>30</v>
+      </c>
+      <c r="L35" s="29">
+        <v>100</v>
+      </c>
+      <c r="M35" s="30">
         <v>8000</v>
       </c>
-      <c r="I33" s="8">
+      <c r="N35" s="30"/>
+      <c r="O35" s="34"/>
+    </row>
+    <row r="36" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A36" s="78"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="25">
+        <v>30</v>
+      </c>
+      <c r="E36" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="25">
+        <v>100</v>
+      </c>
+      <c r="H36" s="24">
+        <v>8000</v>
+      </c>
+      <c r="I36" s="26">
         <v>10000</v>
       </c>
-      <c r="J33" s="5">
-        <v>40</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="J36" s="24">
         <v>10</v>
       </c>
-      <c r="L33" s="5">
-        <v>100</v>
-      </c>
-      <c r="M33" s="8">
+      <c r="K36" s="24">
+        <v>50</v>
+      </c>
+      <c r="L36" s="24">
+        <v>100</v>
+      </c>
+      <c r="M36" s="26">
         <v>8000</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" s="28" customFormat="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="28">
-        <v>17.5</v>
-      </c>
-      <c r="E34" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G34" s="28">
-        <v>100</v>
-      </c>
-      <c r="H34" s="29">
-        <v>8000</v>
-      </c>
-      <c r="I34" s="30">
-        <v>10000</v>
-      </c>
-      <c r="J34" s="29">
-        <v>20</v>
-      </c>
-      <c r="K34" s="29">
-        <v>60</v>
-      </c>
-      <c r="L34" s="29">
-        <v>100</v>
-      </c>
-      <c r="M34" s="30">
-        <v>8000</v>
-      </c>
-      <c r="N34" s="30"/>
-      <c r="O34" s="72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="31" customFormat="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="31">
-        <v>17.5</v>
-      </c>
-      <c r="E35" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="32">
-        <v>1000</v>
-      </c>
-      <c r="G35" s="31">
-        <v>100</v>
-      </c>
-      <c r="H35" s="32">
-        <v>8000</v>
-      </c>
-      <c r="I35" s="33">
-        <v>10000</v>
-      </c>
-      <c r="J35" s="32">
-        <v>0</v>
-      </c>
-      <c r="K35" s="32">
-        <v>40</v>
-      </c>
-      <c r="L35" s="32">
-        <v>100</v>
-      </c>
-      <c r="M35" s="33">
-        <v>8000</v>
-      </c>
-      <c r="N35" s="33"/>
-      <c r="O35" s="73"/>
-    </row>
-    <row r="36" spans="1:15" s="28" customFormat="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="28">
-        <v>30</v>
-      </c>
-      <c r="E36" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G36" s="28">
-        <v>100</v>
-      </c>
-      <c r="H36" s="29">
-        <v>8000</v>
-      </c>
-      <c r="I36" s="30">
-        <v>10000</v>
-      </c>
-      <c r="J36" s="29">
-        <v>10</v>
-      </c>
-      <c r="K36" s="29">
-        <v>30</v>
-      </c>
-      <c r="L36" s="29">
-        <v>100</v>
-      </c>
-      <c r="M36" s="30">
-        <v>8000</v>
-      </c>
-      <c r="N36" s="30"/>
-      <c r="O36" s="34"/>
-    </row>
-    <row r="37" spans="1:15" s="25" customFormat="1">
-      <c r="A37" s="87"/>
-      <c r="B37" s="76"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A37" s="78"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="59" t="s">
         <v>60</v>
       </c>
@@ -2989,10 +3018,10 @@
         <v>10000</v>
       </c>
       <c r="J37" s="24">
+        <v>50</v>
+      </c>
+      <c r="K37" s="24">
         <v>10</v>
-      </c>
-      <c r="K37" s="24">
-        <v>50</v>
       </c>
       <c r="L37" s="24">
         <v>100</v>
@@ -3003,9 +3032,9 @@
       <c r="N37" s="26"/>
       <c r="O37" s="27"/>
     </row>
-    <row r="38" spans="1:15" s="25" customFormat="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="76"/>
+    <row r="38" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A38" s="78"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="59" t="s">
         <v>61</v>
       </c>
@@ -3028,10 +3057,10 @@
         <v>10000</v>
       </c>
       <c r="J38" s="24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K38" s="24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L38" s="24">
         <v>100</v>
@@ -3042,251 +3071,251 @@
       <c r="N38" s="26"/>
       <c r="O38" s="27"/>
     </row>
-    <row r="39" spans="1:15" s="25" customFormat="1">
-      <c r="A39" s="87"/>
+    <row r="39" spans="1:15" s="31" customFormat="1" ht="19" customHeight="1">
+      <c r="A39" s="78"/>
       <c r="B39" s="76"/>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="31">
         <v>30</v>
       </c>
-      <c r="E39" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" s="24">
-        <v>1000</v>
-      </c>
-      <c r="G39" s="25">
-        <v>100</v>
-      </c>
-      <c r="H39" s="24">
+      <c r="E39" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="32">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="31">
+        <v>100</v>
+      </c>
+      <c r="H39" s="32">
         <v>8000</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="33">
         <v>10000</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="32">
         <v>60</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="32">
         <v>20</v>
       </c>
-      <c r="L39" s="24">
-        <v>100</v>
-      </c>
-      <c r="M39" s="26">
+      <c r="L39" s="32">
+        <v>100</v>
+      </c>
+      <c r="M39" s="33">
         <v>8000</v>
       </c>
-      <c r="N39" s="26"/>
-      <c r="O39" s="27"/>
-    </row>
-    <row r="40" spans="1:15" s="31" customFormat="1">
-      <c r="A40" s="87"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="31">
-        <v>30</v>
-      </c>
-      <c r="E40" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="32">
-        <v>1000</v>
-      </c>
-      <c r="G40" s="31">
-        <v>100</v>
-      </c>
-      <c r="H40" s="32">
-        <v>8000</v>
-      </c>
-      <c r="I40" s="33">
-        <v>10000</v>
-      </c>
-      <c r="J40" s="32">
-        <v>60</v>
-      </c>
-      <c r="K40" s="32">
+      <c r="N39" s="33"/>
+      <c r="O39" s="35"/>
+    </row>
+    <row r="40" spans="1:15" s="28" customFormat="1" ht="19" customHeight="1">
+      <c r="A40" s="78"/>
+      <c r="B40" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="E40" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="29">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="28">
+        <v>100</v>
+      </c>
+      <c r="H40" s="29">
+        <v>18000</v>
+      </c>
+      <c r="I40" s="30">
+        <v>20000</v>
+      </c>
+      <c r="J40" s="29">
+        <v>10</v>
+      </c>
+      <c r="K40" s="29">
+        <v>64</v>
+      </c>
+      <c r="L40" s="29">
+        <v>100</v>
+      </c>
+      <c r="M40" s="30">
+        <v>18000</v>
+      </c>
+      <c r="N40" s="30"/>
+      <c r="O40" s="82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A41" s="78"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="25">
+        <v>17.5</v>
+      </c>
+      <c r="E41" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="25">
+        <v>100</v>
+      </c>
+      <c r="H41" s="24">
+        <v>18000</v>
+      </c>
+      <c r="I41" s="26">
+        <v>20000</v>
+      </c>
+      <c r="J41" s="24">
         <v>20</v>
       </c>
-      <c r="L40" s="32">
-        <v>100</v>
-      </c>
-      <c r="M40" s="33">
-        <v>8000</v>
-      </c>
-      <c r="N40" s="33"/>
-      <c r="O40" s="35"/>
-    </row>
-    <row r="41" spans="1:15" s="28" customFormat="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="28">
-        <v>17.5</v>
-      </c>
-      <c r="E41" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="28">
-        <v>100</v>
-      </c>
-      <c r="H41" s="29">
-        <v>18000</v>
-      </c>
-      <c r="I41" s="30">
+      <c r="K41" s="24">
+        <v>92</v>
+      </c>
+      <c r="L41" s="24">
+        <v>100</v>
+      </c>
+      <c r="M41" s="26">
+        <v>18000</v>
+      </c>
+      <c r="N41" s="26"/>
+      <c r="O41" s="83"/>
+    </row>
+    <row r="42" spans="1:15" s="31" customFormat="1" ht="19" customHeight="1">
+      <c r="A42" s="78"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="31">
+        <v>17.5</v>
+      </c>
+      <c r="E42" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="32">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="31">
+        <v>100</v>
+      </c>
+      <c r="H42" s="32">
+        <v>18000</v>
+      </c>
+      <c r="I42" s="33">
         <v>20000</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J42" s="32">
         <v>10</v>
       </c>
-      <c r="K41" s="29">
-        <v>64</v>
-      </c>
-      <c r="L41" s="29">
-        <v>100</v>
-      </c>
-      <c r="M41" s="30">
-        <v>18000</v>
-      </c>
-      <c r="N41" s="30"/>
-      <c r="O41" s="77" t="s">
+      <c r="K42" s="32">
+        <v>118</v>
+      </c>
+      <c r="L42" s="32">
+        <v>100</v>
+      </c>
+      <c r="M42" s="33">
+        <v>18000</v>
+      </c>
+      <c r="N42" s="33"/>
+      <c r="O42" s="84"/>
+    </row>
+    <row r="43" spans="1:15" s="28" customFormat="1" ht="19" customHeight="1">
+      <c r="A43" s="78"/>
+      <c r="B43" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="60" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" s="25" customFormat="1">
-      <c r="A42" s="87"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="25">
-        <v>17.5</v>
-      </c>
-      <c r="E42" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" s="24">
-        <v>1000</v>
-      </c>
-      <c r="G42" s="25">
-        <v>100</v>
-      </c>
-      <c r="H42" s="24">
-        <v>18000</v>
-      </c>
-      <c r="I42" s="26">
+      <c r="D43" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="E43" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="29">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="28">
+        <v>100</v>
+      </c>
+      <c r="H43" s="29">
+        <v>18000</v>
+      </c>
+      <c r="I43" s="30">
         <v>20000</v>
       </c>
-      <c r="J42" s="24">
-        <v>20</v>
-      </c>
-      <c r="K42" s="24">
-        <v>92</v>
-      </c>
-      <c r="L42" s="24">
-        <v>100</v>
-      </c>
-      <c r="M42" s="26">
-        <v>18000</v>
-      </c>
-      <c r="N42" s="26"/>
-      <c r="O42" s="78"/>
-    </row>
-    <row r="43" spans="1:15" s="31" customFormat="1">
-      <c r="A43" s="87"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="31">
-        <v>17.5</v>
-      </c>
-      <c r="E43" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="32">
-        <v>1000</v>
-      </c>
-      <c r="G43" s="31">
-        <v>100</v>
-      </c>
-      <c r="H43" s="32">
-        <v>18000</v>
-      </c>
-      <c r="I43" s="33">
+      <c r="J43" s="29">
+        <v>0</v>
+      </c>
+      <c r="K43" s="29">
+        <v>36</v>
+      </c>
+      <c r="L43" s="29">
+        <v>100</v>
+      </c>
+      <c r="M43" s="30">
+        <v>18000</v>
+      </c>
+      <c r="N43" s="30"/>
+      <c r="O43" s="34"/>
+    </row>
+    <row r="44" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A44" s="78"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="25">
+        <v>17.5</v>
+      </c>
+      <c r="E44" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="25">
+        <v>100</v>
+      </c>
+      <c r="H44" s="24">
+        <v>18000</v>
+      </c>
+      <c r="I44" s="26">
         <v>20000</v>
       </c>
-      <c r="J43" s="32">
-        <v>10</v>
-      </c>
-      <c r="K43" s="32">
-        <v>118</v>
-      </c>
-      <c r="L43" s="32">
-        <v>100</v>
-      </c>
-      <c r="M43" s="33">
-        <v>18000</v>
-      </c>
-      <c r="N43" s="33"/>
-      <c r="O43" s="79"/>
-    </row>
-    <row r="44" spans="1:15" s="28" customFormat="1">
-      <c r="A44" s="87"/>
-      <c r="B44" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="60" t="s">
+      <c r="J44" s="24">
+        <v>0</v>
+      </c>
+      <c r="K44" s="24">
+        <v>36</v>
+      </c>
+      <c r="L44" s="24">
+        <v>100</v>
+      </c>
+      <c r="M44" s="26">
+        <v>18000</v>
+      </c>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
+    </row>
+    <row r="45" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A45" s="78"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="59" t="s">
         <v>70</v>
-      </c>
-      <c r="D44" s="28">
-        <v>17.5</v>
-      </c>
-      <c r="E44" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G44" s="28">
-        <v>100</v>
-      </c>
-      <c r="H44" s="29">
-        <v>18000</v>
-      </c>
-      <c r="I44" s="30">
-        <v>20000</v>
-      </c>
-      <c r="J44" s="29">
-        <v>0</v>
-      </c>
-      <c r="K44" s="29">
-        <v>36</v>
-      </c>
-      <c r="L44" s="29">
-        <v>100</v>
-      </c>
-      <c r="M44" s="30">
-        <v>18000</v>
-      </c>
-      <c r="N44" s="30"/>
-      <c r="O44" s="34"/>
-    </row>
-    <row r="45" spans="1:15" s="25" customFormat="1">
-      <c r="A45" s="87"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="59" t="s">
-        <v>11</v>
       </c>
       <c r="D45" s="25">
         <v>17.5</v>
@@ -3310,20 +3339,20 @@
         <v>0</v>
       </c>
       <c r="K45" s="24">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L45" s="24">
         <v>100</v>
       </c>
       <c r="M45" s="26">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N45" s="26"/>
       <c r="O45" s="27"/>
     </row>
-    <row r="46" spans="1:15" s="25" customFormat="1">
-      <c r="A46" s="87"/>
-      <c r="B46" s="76"/>
+    <row r="46" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A46" s="78"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="59" t="s">
         <v>71</v>
       </c>
@@ -3349,20 +3378,20 @@
         <v>0</v>
       </c>
       <c r="K46" s="24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L46" s="24">
         <v>100</v>
       </c>
       <c r="M46" s="26">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N46" s="26"/>
       <c r="O46" s="27"/>
     </row>
-    <row r="47" spans="1:15" s="25" customFormat="1">
-      <c r="A47" s="87"/>
-      <c r="B47" s="76"/>
+    <row r="47" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A47" s="78"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="59" t="s">
         <v>72</v>
       </c>
@@ -3388,20 +3417,20 @@
         <v>0</v>
       </c>
       <c r="K47" s="24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L47" s="24">
         <v>100</v>
       </c>
       <c r="M47" s="26">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N47" s="26"/>
       <c r="O47" s="27"/>
     </row>
-    <row r="48" spans="1:15" s="25" customFormat="1">
-      <c r="A48" s="87"/>
-      <c r="B48" s="76"/>
+    <row r="48" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A48" s="78"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="59" t="s">
         <v>73</v>
       </c>
@@ -3424,144 +3453,144 @@
         <v>20000</v>
       </c>
       <c r="J48" s="24">
+        <v>6</v>
+      </c>
+      <c r="K48" s="24">
+        <v>20</v>
+      </c>
+      <c r="L48" s="24">
+        <v>100</v>
+      </c>
+      <c r="M48" s="26">
+        <v>18000</v>
+      </c>
+      <c r="N48" s="26"/>
+      <c r="O48" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="31" customFormat="1" ht="19" customHeight="1">
+      <c r="A49" s="78"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="31">
+        <v>17.5</v>
+      </c>
+      <c r="E49" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="32">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="31">
+        <v>100</v>
+      </c>
+      <c r="H49" s="32">
+        <v>18000</v>
+      </c>
+      <c r="I49" s="33">
+        <v>20000</v>
+      </c>
+      <c r="J49" s="32">
+        <v>24</v>
+      </c>
+      <c r="K49" s="32">
+        <v>6</v>
+      </c>
+      <c r="L49" s="32">
+        <v>100</v>
+      </c>
+      <c r="M49" s="33">
+        <v>18000</v>
+      </c>
+      <c r="N49" s="33"/>
+      <c r="O49" s="35"/>
+    </row>
+    <row r="50" spans="1:15" s="28" customFormat="1" ht="19" customHeight="1">
+      <c r="A50" s="78"/>
+      <c r="B50" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="28">
+        <v>17.5</v>
+      </c>
+      <c r="E50" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="29">
+        <v>1000</v>
+      </c>
+      <c r="G50" s="28">
+        <v>100</v>
+      </c>
+      <c r="H50" s="29">
+        <v>18000</v>
+      </c>
+      <c r="I50" s="30">
+        <v>20000</v>
+      </c>
+      <c r="J50" s="29">
         <v>0</v>
       </c>
-      <c r="K48" s="24">
-        <v>16</v>
-      </c>
-      <c r="L48" s="24">
-        <v>100</v>
-      </c>
-      <c r="M48" s="26">
-        <v>16000</v>
-      </c>
-      <c r="N48" s="26"/>
-      <c r="O48" s="27"/>
-    </row>
-    <row r="49" spans="1:15" s="25" customFormat="1" ht="42">
-      <c r="A49" s="87"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="25">
-        <v>17.5</v>
-      </c>
-      <c r="E49" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" s="24">
-        <v>1000</v>
-      </c>
-      <c r="G49" s="25">
-        <v>100</v>
-      </c>
-      <c r="H49" s="24">
-        <v>18000</v>
-      </c>
-      <c r="I49" s="26">
+      <c r="K50" s="29">
+        <v>18</v>
+      </c>
+      <c r="L50" s="29">
+        <v>100</v>
+      </c>
+      <c r="M50" s="30">
+        <v>18000</v>
+      </c>
+      <c r="N50" s="30"/>
+      <c r="O50" s="34"/>
+    </row>
+    <row r="51" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A51" s="78"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="25">
+        <v>17.5</v>
+      </c>
+      <c r="E51" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="24">
+        <v>1000</v>
+      </c>
+      <c r="G51" s="25">
+        <v>100</v>
+      </c>
+      <c r="H51" s="24">
+        <v>18000</v>
+      </c>
+      <c r="I51" s="26">
         <v>20000</v>
       </c>
-      <c r="J49" s="24">
-        <v>6</v>
-      </c>
-      <c r="K49" s="24">
-        <v>20</v>
-      </c>
-      <c r="L49" s="24">
-        <v>100</v>
-      </c>
-      <c r="M49" s="26">
-        <v>18000</v>
-      </c>
-      <c r="N49" s="26"/>
-      <c r="O49" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="31" customFormat="1">
-      <c r="A50" s="87"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="31">
-        <v>17.5</v>
-      </c>
-      <c r="E50" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="32">
-        <v>1000</v>
-      </c>
-      <c r="G50" s="31">
-        <v>100</v>
-      </c>
-      <c r="H50" s="32">
-        <v>18000</v>
-      </c>
-      <c r="I50" s="33">
-        <v>20000</v>
-      </c>
-      <c r="J50" s="32">
-        <v>24</v>
-      </c>
-      <c r="K50" s="32">
-        <v>6</v>
-      </c>
-      <c r="L50" s="32">
-        <v>100</v>
-      </c>
-      <c r="M50" s="33">
-        <v>18000</v>
-      </c>
-      <c r="N50" s="33"/>
-      <c r="O50" s="35"/>
-    </row>
-    <row r="51" spans="1:15" s="28" customFormat="1">
-      <c r="A51" s="87"/>
-      <c r="B51" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="28">
-        <v>17.5</v>
-      </c>
-      <c r="E51" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G51" s="28">
-        <v>100</v>
-      </c>
-      <c r="H51" s="29">
-        <v>18000</v>
-      </c>
-      <c r="I51" s="30">
-        <v>20000</v>
-      </c>
-      <c r="J51" s="29">
-        <v>0</v>
-      </c>
-      <c r="K51" s="29">
-        <v>18</v>
-      </c>
-      <c r="L51" s="29">
-        <v>100</v>
-      </c>
-      <c r="M51" s="30">
-        <v>18000</v>
-      </c>
-      <c r="N51" s="30"/>
-      <c r="O51" s="34"/>
-    </row>
-    <row r="52" spans="1:15" s="25" customFormat="1">
-      <c r="A52" s="87"/>
-      <c r="B52" s="76"/>
+      <c r="J51" s="24">
+        <v>10</v>
+      </c>
+      <c r="K51" s="24">
+        <v>28</v>
+      </c>
+      <c r="L51" s="24">
+        <v>100</v>
+      </c>
+      <c r="M51" s="26">
+        <v>18000</v>
+      </c>
+      <c r="N51" s="26"/>
+      <c r="O51" s="27"/>
+    </row>
+    <row r="52" spans="1:15" s="25" customFormat="1" ht="19" customHeight="1">
+      <c r="A52" s="78"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="63" t="s">
         <v>80</v>
       </c>
@@ -3584,10 +3613,10 @@
         <v>20000</v>
       </c>
       <c r="J52" s="24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K52" s="24">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="L52" s="24">
         <v>100</v>
@@ -3598,120 +3627,110 @@
       <c r="N52" s="26"/>
       <c r="O52" s="27"/>
     </row>
-    <row r="53" spans="1:15" s="25" customFormat="1">
-      <c r="A53" s="87"/>
+    <row r="53" spans="1:15" s="36" customFormat="1" ht="19" customHeight="1">
+      <c r="A53" s="79"/>
       <c r="B53" s="76"/>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="25">
-        <v>17.5</v>
-      </c>
-      <c r="E53" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="24">
-        <v>1000</v>
-      </c>
-      <c r="G53" s="25">
-        <v>100</v>
-      </c>
-      <c r="H53" s="24">
-        <v>18000</v>
-      </c>
-      <c r="I53" s="26">
+      <c r="D53" s="36">
+        <v>17.5</v>
+      </c>
+      <c r="E53" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="37">
+        <v>1000</v>
+      </c>
+      <c r="G53" s="36">
+        <v>100</v>
+      </c>
+      <c r="H53" s="37">
+        <v>18000</v>
+      </c>
+      <c r="I53" s="38">
         <v>20000</v>
       </c>
-      <c r="J53" s="24">
-        <v>20</v>
-      </c>
-      <c r="K53" s="24">
-        <v>47</v>
-      </c>
-      <c r="L53" s="24">
-        <v>100</v>
-      </c>
-      <c r="M53" s="26">
-        <v>18000</v>
-      </c>
-      <c r="N53" s="26"/>
-      <c r="O53" s="27"/>
-    </row>
-    <row r="54" spans="1:15" s="36" customFormat="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="64" t="s">
+      <c r="J53" s="37">
+        <v>30</v>
+      </c>
+      <c r="K53" s="37">
+        <v>66</v>
+      </c>
+      <c r="L53" s="37">
+        <v>100</v>
+      </c>
+      <c r="M53" s="38">
+        <v>18000</v>
+      </c>
+      <c r="N53" s="38"/>
+      <c r="O53" s="39"/>
+    </row>
+    <row r="54" spans="1:15" s="19" customFormat="1">
+      <c r="A54" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="19">
+        <v>17.5</v>
+      </c>
+      <c r="E54" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="20">
+        <v>1000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>100</v>
+      </c>
+      <c r="H54" s="20">
+        <v>18000</v>
+      </c>
+      <c r="I54" s="21">
+        <v>20000</v>
+      </c>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20">
+        <v>100</v>
+      </c>
+      <c r="M54" s="21">
+        <v>18000</v>
+      </c>
+      <c r="N54" s="21"/>
+      <c r="O54" s="23"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="D55" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G55" s="1">
+        <v>100</v>
+      </c>
+      <c r="H55" s="5">
+        <v>18000</v>
+      </c>
+      <c r="I55" s="8">
+        <v>20000</v>
+      </c>
+      <c r="L55" s="5">
+        <v>100</v>
+      </c>
+      <c r="M55" s="8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="36">
-        <v>17.5</v>
-      </c>
-      <c r="E54" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="37">
-        <v>1000</v>
-      </c>
-      <c r="G54" s="36">
-        <v>100</v>
-      </c>
-      <c r="H54" s="37">
-        <v>18000</v>
-      </c>
-      <c r="I54" s="38">
-        <v>20000</v>
-      </c>
-      <c r="J54" s="37">
-        <v>30</v>
-      </c>
-      <c r="K54" s="37">
-        <v>66</v>
-      </c>
-      <c r="L54" s="37">
-        <v>100</v>
-      </c>
-      <c r="M54" s="38">
-        <v>18000</v>
-      </c>
-      <c r="N54" s="38"/>
-      <c r="O54" s="39"/>
-    </row>
-    <row r="55" spans="1:15" s="19" customFormat="1">
-      <c r="A55" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="19">
-        <v>17.5</v>
-      </c>
-      <c r="E55" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" s="20">
-        <v>1000</v>
-      </c>
-      <c r="G55" s="19">
-        <v>100</v>
-      </c>
-      <c r="H55" s="20">
-        <v>18000</v>
-      </c>
-      <c r="I55" s="21">
-        <v>20000</v>
-      </c>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20">
-        <v>100</v>
-      </c>
-      <c r="M55" s="21">
-        <v>18000</v>
-      </c>
-      <c r="N55" s="21"/>
-      <c r="O55" s="23"/>
-    </row>
-    <row r="56" spans="1:15">
       <c r="D56" s="1">
         <v>17.5</v>
       </c>
@@ -3738,9 +3757,8 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="A57" s="13"/>
+      <c r="B57" s="16"/>
       <c r="D57" s="1">
         <v>17.5</v>
       </c>
@@ -3766,82 +3784,93 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="13"/>
-      <c r="B58" s="16"/>
-      <c r="D58" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="E58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G58" s="1">
-        <v>100</v>
-      </c>
-      <c r="H58" s="5">
-        <v>18000</v>
-      </c>
-      <c r="I58" s="8">
-        <v>20000</v>
-      </c>
-      <c r="L58" s="5">
-        <v>100</v>
-      </c>
-      <c r="M58" s="8">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="42" customFormat="1">
-      <c r="A59" s="80" t="s">
+    <row r="58" spans="1:15" s="42" customFormat="1">
+      <c r="A58" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="54" t="s">
+      <c r="D58" s="42">
+        <v>30</v>
+      </c>
+      <c r="E58" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="43">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="42">
+        <v>100</v>
+      </c>
+      <c r="H58" s="43">
+        <v>8000</v>
+      </c>
+      <c r="I58" s="44">
+        <v>10000</v>
+      </c>
+      <c r="J58" s="43">
+        <v>0</v>
+      </c>
+      <c r="K58" s="43">
+        <v>16</v>
+      </c>
+      <c r="L58" s="43">
+        <v>100</v>
+      </c>
+      <c r="M58" s="44">
+        <v>8000</v>
+      </c>
+      <c r="N58" s="44"/>
+      <c r="O58" s="45"/>
+    </row>
+    <row r="59" spans="1:15" s="46" customFormat="1">
+      <c r="A59" s="69"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="46">
+        <v>30</v>
+      </c>
+      <c r="E59" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="47">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="46">
+        <v>100</v>
+      </c>
+      <c r="H59" s="47">
+        <v>8000</v>
+      </c>
+      <c r="I59" s="48">
+        <v>10000</v>
+      </c>
+      <c r="J59" s="47">
+        <v>0</v>
+      </c>
+      <c r="K59" s="47">
+        <v>32</v>
+      </c>
+      <c r="L59" s="47">
+        <v>100</v>
+      </c>
+      <c r="M59" s="48">
+        <v>8000</v>
+      </c>
+      <c r="N59" s="48"/>
+      <c r="O59" s="49"/>
+    </row>
+    <row r="60" spans="1:15" s="46" customFormat="1">
+      <c r="A60" s="69"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="55" t="s">
         <v>85</v>
-      </c>
-      <c r="D59" s="42">
-        <v>30</v>
-      </c>
-      <c r="E59" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="43">
-        <v>1000</v>
-      </c>
-      <c r="G59" s="42">
-        <v>100</v>
-      </c>
-      <c r="H59" s="43">
-        <v>8000</v>
-      </c>
-      <c r="I59" s="44">
-        <v>10000</v>
-      </c>
-      <c r="J59" s="43">
-        <v>0</v>
-      </c>
-      <c r="K59" s="43">
-        <v>16</v>
-      </c>
-      <c r="L59" s="43">
-        <v>100</v>
-      </c>
-      <c r="M59" s="44">
-        <v>8000</v>
-      </c>
-      <c r="N59" s="44"/>
-      <c r="O59" s="45"/>
-    </row>
-    <row r="60" spans="1:15" s="46" customFormat="1">
-      <c r="A60" s="81"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="55" t="s">
-        <v>88</v>
       </c>
       <c r="D60" s="46">
         <v>30</v>
@@ -3862,10 +3891,10 @@
         <v>10000</v>
       </c>
       <c r="J60" s="47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K60" s="47">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L60" s="47">
         <v>100</v>
@@ -3876,87 +3905,74 @@
       <c r="N60" s="48"/>
       <c r="O60" s="49"/>
     </row>
-    <row r="61" spans="1:15" s="46" customFormat="1">
-      <c r="A61" s="81"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="55" t="s">
+    <row r="61" spans="1:15" s="50" customFormat="1">
+      <c r="A61" s="70"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="46">
+      <c r="D61" s="50">
         <v>30</v>
       </c>
-      <c r="E61" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="47">
-        <v>1000</v>
-      </c>
-      <c r="G61" s="46">
-        <v>100</v>
-      </c>
-      <c r="H61" s="47">
-        <v>8000</v>
-      </c>
-      <c r="I61" s="48">
-        <v>10000</v>
-      </c>
-      <c r="J61" s="47">
-        <v>15</v>
-      </c>
-      <c r="K61" s="47">
-        <v>47</v>
-      </c>
-      <c r="L61" s="47">
-        <v>100</v>
-      </c>
-      <c r="M61" s="48">
-        <v>8000</v>
-      </c>
-      <c r="N61" s="48"/>
-      <c r="O61" s="49"/>
-    </row>
-    <row r="62" spans="1:15" s="50" customFormat="1">
-      <c r="A62" s="82"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="50">
-        <v>30</v>
-      </c>
-      <c r="E62" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="51">
-        <v>1000</v>
-      </c>
-      <c r="G62" s="50">
-        <v>100</v>
-      </c>
-      <c r="H62" s="51">
-        <v>18000</v>
-      </c>
-      <c r="I62" s="52">
+      <c r="E61" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="51">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="50">
+        <v>100</v>
+      </c>
+      <c r="H61" s="51">
+        <v>18000</v>
+      </c>
+      <c r="I61" s="52">
         <v>20000</v>
       </c>
-      <c r="J62" s="51">
+      <c r="J61" s="51">
         <v>80</v>
       </c>
-      <c r="K62" s="51">
+      <c r="K61" s="51">
         <v>26</v>
       </c>
-      <c r="L62" s="51">
-        <v>100</v>
-      </c>
-      <c r="M62" s="52">
-        <v>18000</v>
-      </c>
-      <c r="N62" s="52"/>
-      <c r="O62" s="53"/>
+      <c r="L61" s="51">
+        <v>100</v>
+      </c>
+      <c r="M61" s="52">
+        <v>18000</v>
+      </c>
+      <c r="N61" s="52"/>
+      <c r="O61" s="53"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="D62" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="E62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="1">
+        <v>100</v>
+      </c>
+      <c r="H62" s="5">
+        <v>18000</v>
+      </c>
+      <c r="I62" s="8">
+        <v>20000</v>
+      </c>
+      <c r="L62" s="5">
+        <v>100</v>
+      </c>
+      <c r="M62" s="8">
+        <v>18000</v>
+      </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41"/>
       <c r="D63" s="1">
         <v>17.5</v>
       </c>
@@ -4164,51 +4180,25 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="71" spans="4:13">
-      <c r="D71" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="E71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G71" s="1">
-        <v>100</v>
-      </c>
-      <c r="H71" s="5">
-        <v>18000</v>
-      </c>
-      <c r="I71" s="8">
-        <v>20000</v>
-      </c>
-      <c r="L71" s="5">
-        <v>100</v>
-      </c>
-      <c r="M71" s="8">
-        <v>18000</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A3:A54"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="O7:O13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="O19:O24"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="O18:O23"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A2:A53"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="E1:E1048576">
@@ -4233,17 +4223,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{4AE1D26D-CE03-6B47-A48B-A8FA77737F79}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="入力エラー" error="・このセルはlinearがTRUE(段階加熱)でないと入力できません。_x000a_・また数値しか受け付けません。" sqref="J2:M1000" xr:uid="{4919202B-154D-0C4E-B71E-F20918357E58}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="入力エラー" error="・このセルはlinearがTRUE(段階加熱)でないと入力できません。_x000a_・また数値しか受け付けません。" sqref="J2:M999" xr:uid="{4919202B-154D-0C4E-B71E-F20918357E58}">
       <formula1>AND($E2=TRUE(), ISNUMBER(J2))</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="規則エラー" error="・このセルはlinearがFALSE(定常加熱)でないと入力できません。_x000a_・また数値しか受け付けません。" sqref="N2:N1000" xr:uid="{785C51FA-4694-144D-8AFF-EFE411D98BED}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="規則エラー" error="・このセルはlinearがFALSE(定常加熱)でないと入力できません。_x000a_・また数値しか受け付けません。" sqref="N2:N999" xr:uid="{785C51FA-4694-144D-8AFF-EFE411D98BED}">
       <formula1>AND($E2=FALSE(), $E2&lt;&gt;"", ISNUMBER(N2))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="B3" numberStoredAsText="1"/>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>